--- a/sam 구축/sam 승수분석 엑셀.xlsx
+++ b/sam 구축/sam 승수분석 엑셀.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/sam 구축/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C8260C-3FD2-D244-9E43-55F9DBFEF8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BD7147-532B-0B43-B10D-83D566B14044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" activeTab="1" xr2:uid="{C8319445-6E5C-CD48-8805-888DDC9DEAC9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="Y_2" localSheetId="1">'Sheet1 (2)'!$G$14:$M$14</definedName>
     <definedName name="Y_2">Sheet1!$G$14:$M$14</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2080,15 +2080,15 @@
         <v>328663.18</v>
       </c>
       <c r="G1">
-        <f xml:space="preserve"> 606119.428 * 2</f>
-        <v>1212238.8559999999</v>
+        <f xml:space="preserve"> 606119.428</f>
+        <v>606119.42799999996</v>
       </c>
       <c r="L1">
         <v>761603.00699999998</v>
       </c>
       <c r="N1" s="2">
         <f>SUM(A1:M1)</f>
-        <v>5703615.1830000002</v>
+        <v>5097495.7550000008</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>1276734.128</v>
+        <v>670614.69999999995</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0.94948417952840991</v>
+        <v>0.90382663547339481</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>8.3914095856299116E-3</v>
+        <v>1.5975789078288987E-2</v>
       </c>
       <c r="H25">
         <f t="shared" si="4"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>4.2124410885960077E-2</v>
+        <v>8.0197575448316238E-2</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
@@ -3361,7 +3361,7 @@
     <row r="54" spans="3:9">
       <c r="C54" cm="1">
         <f t="array" ref="C54:I59">MMULT(내생,H1_2)</f>
-        <v>2.9948474053066398</v>
+        <v>2.868635463747879</v>
       </c>
       <c r="D54">
         <v>2.2284137528438031</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="55" spans="3:9">
       <c r="C55">
-        <v>0.53663994995317943</v>
+        <v>0.51402431688901262</v>
       </c>
       <c r="D55">
         <v>0.39930443290102541</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="56" spans="3:9">
       <c r="C56">
-        <v>0.48568152756121818</v>
+        <v>0.46521343677832577</v>
       </c>
       <c r="D56">
         <v>0.3613871590258167</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="57" spans="3:9">
       <c r="C57">
-        <v>0.6905553768220738</v>
+        <v>0.66145328143380078</v>
       </c>
       <c r="D57">
         <v>0.51383021922380145</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="58" spans="3:9">
       <c r="C58">
-        <v>0.33176610069232404</v>
+        <v>0.31778447223353767</v>
       </c>
       <c r="D58">
         <v>0.24686137270304068</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="59" spans="3:9">
       <c r="C59">
-        <v>6.6342641694932383E-2</v>
+        <v>7.1484780722425395E-2</v>
       </c>
       <c r="D59">
         <v>1.0431205016982794</v>
@@ -3500,59 +3500,59 @@
     <row r="63" spans="3:9">
       <c r="C63" cm="1">
         <f t="array" ref="C63:C68">MMULT(_xlfn.ANCHORARRAY(C54),N7:N13)</f>
-        <v>5182135.3383248476</v>
+        <v>5097495.7550000018</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64">
-        <v>928575.13998263655</v>
+        <v>913408.7640000002</v>
       </c>
     </row>
     <row r="65" spans="3:8">
       <c r="C65">
-        <v>840399.21455994248</v>
+        <v>826673.01200000034</v>
       </c>
     </row>
     <row r="66" spans="3:8">
       <c r="C66">
-        <v>1194902.7569681786</v>
+        <v>1175386.4640000006</v>
       </c>
     </row>
     <row r="67" spans="3:8">
       <c r="C67">
-        <v>574071.59757440072</v>
+        <v>564695.31200000038</v>
       </c>
     </row>
     <row r="68" spans="3:8">
       <c r="C68">
-        <v>458849.58597871952</v>
+        <v>462297.98</v>
       </c>
     </row>
     <row r="71" spans="3:8">
       <c r="C71" cm="1">
         <f t="array" ref="C71:H71">TRANSPOSE(_xlfn.ANCHORARRAY(C63))</f>
-        <v>5182135.3383248476</v>
+        <v>5097495.7550000018</v>
       </c>
       <c r="D71">
-        <v>928575.13998263655</v>
+        <v>913408.7640000002</v>
       </c>
       <c r="E71">
-        <v>840399.21455994248</v>
+        <v>826673.01200000034</v>
       </c>
       <c r="F71">
-        <v>1194902.7569681786</v>
+        <v>1175386.4640000006</v>
       </c>
       <c r="G71">
-        <v>574071.59757440072</v>
+        <v>564695.31200000038</v>
       </c>
       <c r="H71">
-        <v>458849.58597871952</v>
+        <v>462297.98</v>
       </c>
     </row>
     <row r="79" spans="3:8">
       <c r="C79" cm="1">
         <f t="array" ref="C79:H84">H1_1*_xlfn.ANCHORARRAY(C71)</f>
-        <v>2506108.5186801008</v>
+        <v>2465176.361000001</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3561,18 +3561,18 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>951474.16370684525</v>
+        <v>935933.77900000045</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>326211.60072871047</v>
+        <v>328663.18</v>
       </c>
     </row>
     <row r="80" spans="3:8">
       <c r="C80">
-        <v>928575.13998263667</v>
+        <v>913408.76400000032</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="81" spans="3:8">
       <c r="C81">
-        <v>840399.2145599426</v>
+        <v>826673.01200000045</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3615,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>928575.13998263655</v>
+        <v>913408.7640000002</v>
       </c>
       <c r="E82">
-        <v>266327.61698554183</v>
+        <v>261977.7000000001</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>574071.59757440072</v>
+        <v>564695.31200000027</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>100275.93635687536</v>
+        <v>98638.13400000018</v>
       </c>
       <c r="H84">
         <v>0</v>
